--- a/documents/ひとまず完成したもの/DB定義書_worldMap.xlsx
+++ b/documents/ひとまず完成したもの/DB定義書_worldMap.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-4\documents\ひとまず完成したもの\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1B5837-323A-43D7-8951-58F55F444884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D88492-01EC-4135-9828-D455C7F99817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="81">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -485,6 +485,20 @@
     <rPh sb="3" eb="4">
       <t>ブン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お気に入りフラグ</t>
+    <rPh sb="1" eb="2">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>favorites_flag</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1324,8 +1338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2443,7 +2457,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2635,25 +2649,35 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">note_id int </v>
+        <v>note_id int ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">favorites_flag int </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
